--- a/medicine/Médecine vétérinaire/André_Simard/André_Simard.xlsx
+++ b/medicine/Médecine vétérinaire/André_Simard/André_Simard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Simard</t>
+          <t>André_Simard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 André Simard (né le 22 novembre 1953 à Normandin, au Québec) est un homme politique québécois.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Simard</t>
+          <t>André_Simard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,14 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vétérinaire et fonctionnaire
-Après l'obtention de son doctorat en médecine vétérinaire de l'Université de Montréal en 1978, il rejoint l'année suivant le ministère de l'Agriculture, des Pêcheries et de l'Alimentation. Il y est fonctionnaire jusqu'en 1996, année où il devient directeur général de l'Institut de technologie agroalimentaire à La Pocatière.
-Vie politique
-À son départ de l'Institut de technologie agroalimentaire en 2010, il souhaite s'investir pour ses concitoyens. Étant souverainiste, il fait le choix du Parti québécois. La démission et la mort du député et ministre Claude Béchard le 7 septembre 2010, rend la circonscription de Kamouraska-Témiscouata vacante, et il s'y présente comme candidat. Il affronte France Dionne du Parti libéral du Québec, Gérald Beaulieu de l'Action démocratique du Québec, Serge Proulx de Québec solidaire et Frédéric Brophy Nolan pour le Parti vert du Québec. Le 29 novembre 2010, il est élu avec 7 213 voix battant sa plus proche adversaire, France Dionne (7 017 voix)[1].
-Il est assermenté le 7 décembre 2010 à l'Assemblée nationale du Québec[2], puis reçoit une fonction parlementaire le 13 décembre, devenant porte-parole de l’opposition officielle en matière de recherche, de technologie et d’innovation[3].
-Le 19 août 2011, un nouveau dossier lui est attribué et il devient porte-parole de l'opposition officielle en matière d'agriculture et d'alimentation[4].
-Il est également candidat pour le Parti québécois pour la circonscription de Côte-du-Sud aux élections de 2012 et 2014.
-Lors des élections municipales québécoises de 2017, il est élu maire de Saint-Roch-des-Aulnaies.
+          <t>Vétérinaire et fonctionnaire</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après l'obtention de son doctorat en médecine vétérinaire de l'Université de Montréal en 1978, il rejoint l'année suivant le ministère de l'Agriculture, des Pêcheries et de l'Alimentation. Il y est fonctionnaire jusqu'en 1996, année où il devient directeur général de l'Institut de technologie agroalimentaire à La Pocatière.
 </t>
         </is>
       </c>
@@ -533,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Simard</t>
+          <t>André_Simard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,12 +559,55 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie politique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À son départ de l'Institut de technologie agroalimentaire en 2010, il souhaite s'investir pour ses concitoyens. Étant souverainiste, il fait le choix du Parti québécois. La démission et la mort du député et ministre Claude Béchard le 7 septembre 2010, rend la circonscription de Kamouraska-Témiscouata vacante, et il s'y présente comme candidat. Il affronte France Dionne du Parti libéral du Québec, Gérald Beaulieu de l'Action démocratique du Québec, Serge Proulx de Québec solidaire et Frédéric Brophy Nolan pour le Parti vert du Québec. Le 29 novembre 2010, il est élu avec 7 213 voix battant sa plus proche adversaire, France Dionne (7 017 voix).
+Il est assermenté le 7 décembre 2010 à l'Assemblée nationale du Québec, puis reçoit une fonction parlementaire le 13 décembre, devenant porte-parole de l’opposition officielle en matière de recherche, de technologie et d’innovation.
+Le 19 août 2011, un nouveau dossier lui est attribué et il devient porte-parole de l'opposition officielle en matière d'agriculture et d'alimentation.
+Il est également candidat pour le Parti québécois pour la circonscription de Côte-du-Sud aux élections de 2012 et 2014.
+Lors des élections municipales québécoises de 2017, il est élu maire de Saint-Roch-des-Aulnaies.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>André_Simard</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Simard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le 27 décembre 2018, il est nommé Membre de l'Ordre du Canada[5].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le 27 décembre 2018, il est nommé Membre de l'Ordre du Canada.</t>
         </is>
       </c>
     </row>
